--- a/app/data/plantillas/equipos.xlsx
+++ b/app/data/plantillas/equipos.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\Ortega Marcos\Documents\Mis Cosas Marcos\Proyectos\Proyectos Bases\Back+\FmToolOnlineBackEnd\app\data\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Programacion\Proyecto Final\FmOnlineTools\frontend\src\assets\uploads\equipos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20050102-9B06-4FCD-A92F-206D9274C216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>nombre</t>
   </si>
@@ -35,19 +41,88 @@
     <t>nacionalidad_id</t>
   </si>
   <si>
-    <t>equipo_id</t>
-  </si>
-  <si>
     <t>idFmrte</t>
   </si>
   <si>
     <t>nombre_corto</t>
+  </si>
+  <si>
+    <t>AJ Auxerre</t>
+  </si>
+  <si>
+    <t>Angers SCO</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>AS Saint-Etienne</t>
+  </si>
+  <si>
+    <t>FC Girondins de Bordeaux</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>FC Lorient</t>
+  </si>
+  <si>
+    <t>Havre AC</t>
+  </si>
+  <si>
+    <t>LOSC Lille</t>
+  </si>
+  <si>
+    <t>Nîmes Olympique</t>
+  </si>
+  <si>
+    <t>Nîmes</t>
+  </si>
+  <si>
+    <t>OGC Nice</t>
+  </si>
+  <si>
+    <t>Olympique de Marseille</t>
+  </si>
+  <si>
+    <t>Olympique Marseille</t>
+  </si>
+  <si>
+    <t>Olympique Lyonnais</t>
+  </si>
+  <si>
+    <t>Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>RC Lens</t>
+  </si>
+  <si>
+    <t>RC Strasbourg Alsace</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Stade Brestois 29</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Stade de Reims</t>
+  </si>
+  <si>
+    <t>Stade Rennais FC</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,26 +132,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -84,32 +155,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -145,7 +207,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -157,7 +219,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -204,6 +266,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -239,6 +318,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,44 +486,546 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:E21818"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>824</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>769</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>875</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="4">
+        <v>769</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>826</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>769</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>828</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>769</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>851</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>769</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>769</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>856</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>769</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>858</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <v>769</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>860</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
+        <v>769</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>862</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
+        <v>769</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>866</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>769</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>865</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4">
+        <v>769</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>868</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4">
+        <v>769</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>871</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>769</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>872</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4">
+        <v>769</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>2061</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4">
+        <v>769</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>2047</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4">
+        <v>769</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>884</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4">
+        <v>769</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="21818" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21818" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E54518">
+    <sortCondition descending="1" ref="C3:C54518"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>